--- a/止损止盈统计.xlsx
+++ b/止损止盈统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>成本价</t>
   </si>
@@ -26,18 +26,31 @@
   <si>
     <t>盈亏比</t>
   </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>止盈收益率</t>
+  </si>
+  <si>
+    <t>止损收益率</t>
+  </si>
+  <si>
+    <t>整体离场，用整体浮盈消解单一头寸的浮亏</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,10 +66,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -68,11 +103,72 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,54 +176,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,79 +216,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,7 +254,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +308,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,13 +344,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,73 +392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,31 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,44 +444,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -441,6 +469,121 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -460,84 +603,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,157 +623,193 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -765,21 +866,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1080,179 +1181,237 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="22.5" spans="1:3">
-      <c r="A2" s="1">
-        <v>1713.4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1673</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="e">
         <f>(B2-A2)/B2</f>
-        <v>-0.024148236700538</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="22.5" spans="1:8">
-      <c r="A4" s="1">
-        <v>1347.1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1432</v>
-      </c>
-      <c r="C4" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="e">
+        <f>(B3-A3)/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.025</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-0.0369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="e">
         <f>(B4-A4)/B4</f>
-        <v>0.0592877094972068</v>
-      </c>
-      <c r="H4">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="6" spans="7:10">
-      <c r="G6" s="5"/>
-      <c r="H6" s="3">
-        <v>1377</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="7:10">
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="7:10">
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="7:10">
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="7:10">
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="7:10">
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="7:10">
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>1660</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1390</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="17" spans="7:10">
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="7:10">
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="7:10">
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="7:10">
-      <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="7:10">
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="7:10">
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.0677</v>
+      </c>
+      <c r="H4" s="9">
+        <v>-0.0467</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" ht="51" customHeight="1" spans="6:11">
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="6:11">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="6:11">
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="4:11">
+      <c r="D8" s="15">
+        <v>2685</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="D9" s="15">
+        <v>3549</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="4:11">
+      <c r="D10" s="15">
+        <v>7518</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C19">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <mergeCells count="1">
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/止损止盈统计.xlsx
+++ b/止损止盈统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,19 +101,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,16 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,35 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,67 +244,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,32 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +565,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,22 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,138 +623,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1184,224 +1190,181 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="e">
-        <f>(B2-A2)/B2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H2" s="7">
-        <v>-0.1</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="e">
-        <f>(B3-A3)/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.025</v>
-      </c>
-      <c r="H3" s="8">
-        <v>-0.0369</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="e">
-        <f>(B4-A4)/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.0677</v>
-      </c>
-      <c r="H4" s="9">
-        <v>-0.0467</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" ht="51" customHeight="1" spans="6:11">
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="6:11">
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="6:11">
-      <c r="F7" s="4">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="15">
-        <v>2685</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="15">
-        <v>3549</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="15">
-        <v>7518</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="6:8">
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="6:8">
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="6:8">
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1424,14 +1387,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L4" sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1"/>
+      <c r="C1"/>
+      <c r="D1" s="2"/>
+      <c r="E1"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1"/>
+      <c r="C2"/>
+      <c r="D2" s="2"/>
+      <c r="E2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1"/>
+      <c r="C3"/>
+      <c r="D3" s="2"/>
+      <c r="E3"/>
+      <c r="F3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/止损止盈统计.xlsx
+++ b/止损止盈统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>成本价</t>
   </si>
@@ -37,26 +37,102 @@
   </si>
   <si>
     <t>整体离场，用整体浮盈消解单一头寸的浮亏</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Mark Price</t>
+  </si>
+  <si>
+    <t>Mark Value</t>
+  </si>
+  <si>
+    <t>Average Cost</t>
+  </si>
+  <si>
+    <t>Unrealized P&amp;L</t>
+  </si>
+  <si>
+    <t>Realized P&amp;L</t>
+  </si>
+  <si>
+    <t>Liquidate Last</t>
+  </si>
+  <si>
+    <t>Total JPY</t>
+  </si>
+  <si>
+    <t>3099, Stock, SMART, JPY</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Close Position</t>
+  </si>
+  <si>
+    <t>3289, Stock, SMART, JPY</t>
+  </si>
+  <si>
+    <t>9021, Stock, SMART, JPY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFF99"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFF99"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
@@ -102,6 +178,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +215,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,108 +320,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,203 +330,242 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF333333"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF333333"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,15 +623,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -526,26 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,8 +659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +680,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -603,6 +703,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,198 +738,216 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1190,181 +1323,202 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E11"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="23.25" spans="1:8">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+    <row r="2" ht="23.25" spans="1:8">
+      <c r="A2" s="5">
+        <v>609.6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>571.4</v>
+      </c>
+      <c r="C2" s="14">
+        <f>(B2-A2)/A2</f>
+        <v>-0.0626640419947507</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" ht="23.25" spans="1:8">
+      <c r="A3" s="5">
+        <v>550.6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>537.6</v>
+      </c>
+      <c r="C3" s="14">
+        <f>(B3-A3)/A3</f>
+        <v>-0.0236106066109699</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" ht="23.25" spans="1:11">
+      <c r="A4" s="5">
+        <v>5471</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5156</v>
+      </c>
+      <c r="C4" s="14">
+        <f>(B4-A4)/A4</f>
+        <v>-0.0575763114604277</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" ht="51" customHeight="1" spans="6:11">
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="6:11">
-      <c r="F6" s="6"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="19"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="6:11">
-      <c r="F7" s="6"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="17"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="23"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="17"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="23"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="17"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="6:8">
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="6:8">
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="6:8">
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1387,36 +1541,182 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="A1:L4"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1"/>
-      <c r="C1"/>
+    <row r="1" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1"/>
-      <c r="C2"/>
-      <c r="D2" s="2"/>
-      <c r="E2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1"/>
-      <c r="C3"/>
-      <c r="D3" s="2"/>
-      <c r="E3"/>
-      <c r="F3" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" ht="24" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
+        <v>56316000</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7">
+        <v>-2932910</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" ht="23.25" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
+        <v>60000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>571.4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>34300000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>609.6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-2289704.11</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7">
+        <v>40000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>537.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>21500000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>550.6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-521467.26</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="23.25" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5156</v>
+      </c>
+      <c r="D7" s="6">
+        <v>516000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5471</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-31537.36</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/止损止盈统计.xlsx
+++ b/止损止盈统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>成本价</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Liquidate Last</t>
-  </si>
-  <si>
-    <t>Total JPY</t>
   </si>
   <si>
     <t>3099, Stock, SMART, JPY</t>
@@ -89,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +125,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="7"/>
       <color rgb="FF000000"/>
@@ -177,8 +181,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +263,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,21 +280,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,21 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -251,75 +324,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -342,31 +346,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,151 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +660,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,36 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,19 +742,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,116 +763,116 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,64 +885,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -947,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1323,202 +1339,202 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="14" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="23.25" spans="1:8">
-      <c r="A2" s="5">
-        <v>609.6</v>
-      </c>
-      <c r="B2" s="5">
-        <v>571.4</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="A2" s="7">
+        <v>632.5</v>
+      </c>
+      <c r="B2" s="11">
+        <v>617</v>
+      </c>
+      <c r="C2" s="18">
         <f>(B2-A2)/A2</f>
-        <v>-0.0626640419947507</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+        <v>-0.0245059288537549</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" ht="23.25" spans="1:8">
-      <c r="A3" s="5">
-        <v>550.6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>537.6</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="7">
+        <v>553.3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>568</v>
+      </c>
+      <c r="C3" s="18">
         <f>(B3-A3)/A3</f>
-        <v>-0.0236106066109699</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+        <v>0.0265678655340684</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" ht="23.25" spans="1:11">
-      <c r="A4" s="5">
-        <v>5471</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5156</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="A4" s="7">
+        <v>5488</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5390</v>
+      </c>
+      <c r="C4" s="18">
         <f>(B4-A4)/A4</f>
-        <v>-0.0575763114604277</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+        <v>-0.0178571428571429</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" ht="51" customHeight="1" spans="6:11">
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="6:11">
-      <c r="F6" s="13"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="6:11">
-      <c r="F7" s="13"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="23"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="23"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="23"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25"/>
+      <c r="D10" s="27"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="6:8">
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="6:8">
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="6:8">
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1541,13 +1557,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -1589,7 +1605,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1601,115 +1617,139 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="14.25" spans="1:14">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:14">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
+        <v>643</v>
+      </c>
+      <c r="M5" s="11">
+        <v>100</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" ht="23.25" spans="1:14">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
-        <v>56316000</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7">
-        <v>-2932910</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="B6" s="6">
+        <v>40000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>617</v>
+      </c>
+      <c r="D6" s="8">
+        <v>24700000</v>
+      </c>
+      <c r="E6" s="7">
+        <v>632.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-620224</v>
+      </c>
+      <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" ht="23.25" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
+      <c r="I6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="10">
+        <v>467</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" ht="23.25" spans="1:14">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
         <v>60000</v>
       </c>
-      <c r="C5" s="5">
-        <v>571.4</v>
-      </c>
-      <c r="D5" s="6">
-        <v>34300000</v>
-      </c>
-      <c r="E5" s="5">
-        <v>609.6</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-2289704.11</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="C7" s="7">
+        <v>568</v>
+      </c>
+      <c r="D7" s="8">
+        <v>34100000</v>
+      </c>
+      <c r="E7" s="7">
+        <v>553.3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>883323.89</v>
+      </c>
+      <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="23.25" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" ht="23.25" spans="1:10">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
-        <v>40000</v>
-      </c>
-      <c r="C6" s="5">
-        <v>537.6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>21500000</v>
-      </c>
-      <c r="E6" s="5">
-        <v>550.6</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-521467.26</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="23.25" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5156</v>
-      </c>
-      <c r="D7" s="6">
-        <v>516000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5471</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-31537.36</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="6">
+        <v>5800</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5390</v>
+      </c>
+      <c r="D8" s="8">
+        <v>31300000</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5488</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-569845.12</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/止损止盈统计.xlsx
+++ b/止损止盈统计.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>成本价</t>
   </si>
@@ -36,34 +36,16 @@
     <t>止损收益率</t>
   </si>
   <si>
+    <t>调仓备选</t>
+  </si>
+  <si>
     <t>整体离场，用整体浮盈消解单一头寸的浮亏</t>
   </si>
   <si>
-    <t>Contract</t>
+    <t>Total JPY</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Mark Price</t>
-  </si>
-  <si>
-    <t>Mark Value</t>
-  </si>
-  <si>
-    <t>Average Cost</t>
-  </si>
-  <si>
-    <t>Unrealized P&amp;L</t>
-  </si>
-  <si>
-    <t>Realized P&amp;L</t>
-  </si>
-  <si>
-    <t>Liquidate Last</t>
-  </si>
-  <si>
-    <t>3099, Stock, SMART, JPY</t>
+    <t>1605, Stock, SMART, JPY</t>
   </si>
   <si>
     <t>No</t>
@@ -75,10 +57,10 @@
     <t>Close Position</t>
   </si>
   <si>
-    <t>3289, Stock, SMART, JPY</t>
+    <t>3086, Stock, SMART, JPY</t>
   </si>
   <si>
-    <t>9021, Stock, SMART, JPY</t>
+    <t>4028, Stock, SMART, JPY</t>
   </si>
 </sst>
 </file>
@@ -86,18 +68,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFF99"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -107,20 +108,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFFFF99"/>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFEEEEEE"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -132,13 +128,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -153,6 +142,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -181,6 +177,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -197,7 +261,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,52 +284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,32 +299,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,14 +320,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -346,213 +342,195 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF333333"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -573,6 +551,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF333333"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -625,6 +671,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -640,10 +695,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -666,32 +747,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -713,15 +768,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,228 +788,264 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,203 +1420,211 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="14" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14" style="25" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" spans="1:8">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="23.25" spans="1:8">
-      <c r="A2" s="7">
-        <v>632.5</v>
-      </c>
-      <c r="B2" s="11">
-        <v>617</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="2">
+        <v>721.6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>729</v>
+      </c>
+      <c r="C2" s="29">
         <f>(B2-A2)/A2</f>
-        <v>-0.0245059288537549</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+        <v>0.0102549889135255</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" ht="23.25" spans="1:8">
-      <c r="A3" s="7">
-        <v>553.3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>568</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="A3" s="2">
+        <v>1013.8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1013.7</v>
+      </c>
+      <c r="C3" s="29">
         <f>(B3-A3)/A3</f>
-        <v>0.0265678655340684</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+        <v>-9.86387847700819e-5</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" ht="23.25" spans="1:11">
-      <c r="A4" s="7">
-        <v>5488</v>
-      </c>
-      <c r="B4" s="11">
-        <v>5390</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="A4" s="2">
+        <v>809.6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>788.5</v>
+      </c>
+      <c r="C4" s="29">
         <f>(B4-A4)/A4</f>
-        <v>-0.0178571428571429</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" ht="51" customHeight="1" spans="6:11">
-      <c r="F5" s="22" t="s">
+        <v>-0.0260622529644269</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" ht="51" customHeight="1" spans="2:11">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="6:11">
-      <c r="F6" s="17"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="6:11">
-      <c r="F7" s="17"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
+      <c r="F5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" ht="31.5" spans="2:11">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" ht="31.5" spans="2:11">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="27"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
+      <c r="D8" s="39"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="27"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
+      <c r="D9" s="39"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="4:11">
-      <c r="D10" s="27"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29"/>
+      <c r="D10" s="39"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="6:8">
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="6:8">
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="6:8">
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="6:8">
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1559,203 +1649,201 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3">
+        <v>31010000</v>
+      </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="24" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="4">
+        <v>-96978</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>729</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14600000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>721.6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>148464</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" ht="23.25" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1013.7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10100000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1013.8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-1063.85</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" ht="23.25" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="B4" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>788.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6310000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>809.6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-169177.6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" ht="14.25" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10">
-        <v>643</v>
-      </c>
-      <c r="M5" s="11">
-        <v>100</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" ht="23.25" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6">
-        <v>40000</v>
-      </c>
-      <c r="C6" s="7">
-        <v>617</v>
-      </c>
-      <c r="D6" s="8">
-        <v>24700000</v>
-      </c>
-      <c r="E6" s="7">
-        <v>632.5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>-620224</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="10">
-        <v>467</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" ht="23.25" spans="1:14">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6">
-        <v>60000</v>
-      </c>
-      <c r="C7" s="7">
-        <v>568</v>
-      </c>
-      <c r="D7" s="8">
-        <v>34100000</v>
-      </c>
-      <c r="E7" s="7">
-        <v>553.3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>883323.89</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" ht="23.25" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C8" s="7">
-        <v>5390</v>
-      </c>
-      <c r="D8" s="8">
-        <v>31300000</v>
-      </c>
-      <c r="E8" s="7">
-        <v>5488</v>
-      </c>
-      <c r="F8" s="8">
-        <v>-569845.12</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="1">
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
